--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Spon2-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Spon2-Itga5.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5916963333333333</v>
+        <v>0.1079986666666667</v>
       </c>
       <c r="H2">
-        <v>1.775089</v>
+        <v>0.323996</v>
       </c>
       <c r="I2">
-        <v>0.02270977341260246</v>
+        <v>0.004187739561209694</v>
       </c>
       <c r="J2">
-        <v>0.02270977341260246</v>
+        <v>0.004187739561209694</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N2">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O2">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P2">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q2">
-        <v>16.99598803936444</v>
+        <v>1.117528479181778</v>
       </c>
       <c r="R2">
-        <v>152.96389235428</v>
+        <v>10.057756312636</v>
       </c>
       <c r="S2">
-        <v>0.009613635513888717</v>
+        <v>0.000963160616717886</v>
       </c>
       <c r="T2">
-        <v>0.009613635513888719</v>
+        <v>0.0009631606167178862</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5916963333333333</v>
+        <v>0.1079986666666667</v>
       </c>
       <c r="H3">
-        <v>1.775089</v>
+        <v>0.323996</v>
       </c>
       <c r="I3">
-        <v>0.02270977341260246</v>
+        <v>0.004187739561209694</v>
       </c>
       <c r="J3">
-        <v>0.02270977341260246</v>
+        <v>0.004187739561209694</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>91.709587</v>
       </c>
       <c r="O3">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P3">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q3">
-        <v>18.08807545313811</v>
+        <v>3.301504372183556</v>
       </c>
       <c r="R3">
-        <v>162.792679078243</v>
+        <v>29.713539349652</v>
       </c>
       <c r="S3">
-        <v>0.01023136543467995</v>
+        <v>0.002845456779354139</v>
       </c>
       <c r="T3">
-        <v>0.01023136543467996</v>
+        <v>0.00284545677935414</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5916963333333333</v>
+        <v>0.1079986666666667</v>
       </c>
       <c r="H4">
-        <v>1.775089</v>
+        <v>0.323996</v>
       </c>
       <c r="I4">
-        <v>0.02270977341260246</v>
+        <v>0.004187739561209694</v>
       </c>
       <c r="J4">
-        <v>0.02270977341260246</v>
+        <v>0.004187739561209694</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N4">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O4">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P4">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q4">
-        <v>5.064643699449332</v>
+        <v>0.4398849052551111</v>
       </c>
       <c r="R4">
-        <v>45.58179329504399</v>
+        <v>3.958964147296</v>
       </c>
       <c r="S4">
-        <v>0.002864772464033787</v>
+        <v>0.0003791221651376686</v>
       </c>
       <c r="T4">
-        <v>0.002864772464033787</v>
+        <v>0.0003791221651376687</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>74.947</v>
       </c>
       <c r="I5">
-        <v>0.9588417188965267</v>
+        <v>0.9687110856121154</v>
       </c>
       <c r="J5">
-        <v>0.9588417188965268</v>
+        <v>0.9687110856121155</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N5">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O5">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P5">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q5">
-        <v>717.5968729377777</v>
+        <v>258.5075338252222</v>
       </c>
       <c r="R5">
-        <v>6458.37185644</v>
+        <v>2326.567804427</v>
       </c>
       <c r="S5">
-        <v>0.4059025439622564</v>
+        <v>0.2227990430164428</v>
       </c>
       <c r="T5">
-        <v>0.4059025439622565</v>
+        <v>0.2227990430164428</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>74.947</v>
       </c>
       <c r="I6">
-        <v>0.9588417188965267</v>
+        <v>0.9687110856121154</v>
       </c>
       <c r="J6">
-        <v>0.9588417188965268</v>
+        <v>0.9687110856121155</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>91.709587</v>
       </c>
       <c r="O6">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P6">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q6">
         <v>763.7064907654444</v>
@@ -818,10 +818,10 @@
         <v>6873.358416889</v>
       </c>
       <c r="S6">
-        <v>0.4319840555785984</v>
+        <v>0.658213216342963</v>
       </c>
       <c r="T6">
-        <v>0.4319840555785985</v>
+        <v>0.6582132163429633</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>74.947</v>
       </c>
       <c r="I7">
-        <v>0.9588417188965267</v>
+        <v>0.9687110856121154</v>
       </c>
       <c r="J7">
-        <v>0.9588417188965268</v>
+        <v>0.9687110856121155</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N7">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O7">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P7">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q7">
-        <v>213.8370816013333</v>
+        <v>101.7545092968889</v>
       </c>
       <c r="R7">
-        <v>1924.533734412</v>
+        <v>915.790583672</v>
       </c>
       <c r="S7">
-        <v>0.1209551193556719</v>
+        <v>0.08769882625270944</v>
       </c>
       <c r="T7">
-        <v>0.1209551193556719</v>
+        <v>0.08769882625270947</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4806703333333333</v>
+        <v>0.6989190000000001</v>
       </c>
       <c r="H8">
-        <v>1.442011</v>
+        <v>2.096757</v>
       </c>
       <c r="I8">
-        <v>0.01844850769087087</v>
+        <v>0.02710117482667488</v>
       </c>
       <c r="J8">
-        <v>0.01844850769087087</v>
+        <v>0.02710117482667489</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N8">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O8">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P8">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q8">
-        <v>13.80685797085778</v>
+        <v>7.232143796293</v>
       </c>
       <c r="R8">
-        <v>124.26172173772</v>
+        <v>65.089294166637</v>
       </c>
       <c r="S8">
-        <v>0.007809731321087665</v>
+        <v>0.006233144129024879</v>
       </c>
       <c r="T8">
-        <v>0.007809731321087667</v>
+        <v>0.006233144129024881</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4806703333333333</v>
+        <v>0.6989190000000001</v>
       </c>
       <c r="H9">
-        <v>1.442011</v>
+        <v>2.096757</v>
       </c>
       <c r="I9">
-        <v>0.01844850769087087</v>
+        <v>0.02710117482667488</v>
       </c>
       <c r="J9">
-        <v>0.01844850769087087</v>
+        <v>0.02710117482667489</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>91.709587</v>
       </c>
       <c r="O9">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P9">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q9">
-        <v>14.69402591771744</v>
+        <v>21.365857612151</v>
       </c>
       <c r="R9">
-        <v>132.246233259457</v>
+        <v>192.292718509359</v>
       </c>
       <c r="S9">
-        <v>0.008311550295127892</v>
+        <v>0.01841452184690011</v>
       </c>
       <c r="T9">
-        <v>0.008311550295127893</v>
+        <v>0.01841452184690011</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4806703333333333</v>
+        <v>0.6989190000000001</v>
       </c>
       <c r="H10">
-        <v>1.442011</v>
+        <v>2.096757</v>
       </c>
       <c r="I10">
-        <v>0.01844850769087087</v>
+        <v>0.02710117482667488</v>
       </c>
       <c r="J10">
-        <v>0.01844850769087087</v>
+        <v>0.02710117482667489</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N10">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O10">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P10">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q10">
-        <v>4.114313099617332</v>
+        <v>2.846738090248</v>
       </c>
       <c r="R10">
-        <v>37.028817896556</v>
+        <v>25.620642812232</v>
       </c>
       <c r="S10">
-        <v>0.002327226074655313</v>
+        <v>0.002453508850749894</v>
       </c>
       <c r="T10">
-        <v>0.002327226074655313</v>
+        <v>0.002453508850749895</v>
       </c>
     </row>
   </sheetData>
